--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_1_29.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_1_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2569201.773641564</v>
+        <v>2567314.192125161</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800618</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9619583.913299093</v>
+        <v>9619583.913299097</v>
       </c>
     </row>
     <row r="11">
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>126.1774605064788</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>346.6999128968763</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -744,7 +744,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>157.6450804554007</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,13 +823,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,19 +859,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>16.41417826496291</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>50.4315177721688</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -914,7 +914,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>73.10256687722817</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>332.3986578799465</v>
       </c>
     </row>
     <row r="6">
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.5968436493441</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,16 +1111,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>55.90301252244922</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>82.59957183215651</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>35.12287234938842</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>59.66385641544537</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1345,16 +1345,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>129.0246247964035</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I11" t="n">
         <v>81.77913505274074</v>
@@ -1525,16 +1525,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>164.3675597136116</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>94.16481274941231</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1588,13 +1588,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>15.04252548593021</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1777,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>39.11561436815781</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2053,10 +2053,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>206.8064269214861</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>26.97444673954874</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2093,13 +2093,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2239,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>183.1796758467</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>118.2422920270586</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2527,13 +2527,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>163.9563538534661</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>237.3965091869244</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2570,10 +2570,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,7 +2713,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>96.84207451769305</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2776,10 +2776,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>143.3158222056514</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2804,13 +2804,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896903</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>124.6287235533803</v>
       </c>
       <c r="C31" t="n">
         <v>112.0435644700708</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>93.41221638965533</v>
       </c>
       <c r="E31" t="n">
         <v>91.23070601801214</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437422</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348206</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>93.7105717389791</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571496</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523577</v>
+        <v>54.76109577523579</v>
       </c>
       <c r="S31" t="n">
         <v>142.7175533550462</v>
@@ -3016,7 +3016,7 @@
         <v>170.5063987604801</v>
       </c>
       <c r="Y31" t="n">
-        <v>73.19337109393871</v>
+        <v>111.8765232158128</v>
       </c>
     </row>
     <row r="32">
@@ -3044,10 +3044,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113166</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692849</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373781</v>
+        <v>98.36167833373703</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3320,7 +3320,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692849</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3563,7 +3563,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3749,7 +3749,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417103</v>
       </c>
       <c r="G41" t="n">
         <v>411.9645167896915</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H43" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463137</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415218</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D46" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373693</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>919.5755868835438</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>919.5755868835438</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>919.5755868835438</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>919.5755868835438</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>508.5896820939362</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4370,10 +4370,10 @@
         <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1309.714918859356</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="Y2" t="n">
-        <v>919.5755868835438</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>563.4023475952011</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>563.4023475952011</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>563.4023475952011</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>415.489254012808</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>711.5490061610171</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>563.4023475952011</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>563.4023475952011</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T4" t="n">
-        <v>563.4023475952011</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="U4" t="n">
-        <v>563.4023475952011</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="V4" t="n">
-        <v>563.4023475952011</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="W4" t="n">
-        <v>563.4023475952011</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="X4" t="n">
-        <v>563.4023475952011</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y4" t="n">
-        <v>563.4023475952011</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1164.312709242129</v>
+        <v>1714.263756178945</v>
       </c>
       <c r="C5" t="n">
-        <v>1164.312709242129</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="D5" t="n">
-        <v>806.0470106353782</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="E5" t="n">
-        <v>806.0470106353782</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2568.279424905051</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2568.279424905051</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2314.517639543142</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V5" t="n">
-        <v>2314.517639543142</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W5" t="n">
-        <v>2314.517639543142</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="X5" t="n">
-        <v>1941.051881282062</v>
+        <v>2050.019976259699</v>
       </c>
       <c r="Y5" t="n">
-        <v>1550.91254930625</v>
+        <v>1714.263756178945</v>
       </c>
     </row>
     <row r="6">
@@ -4620,55 +4620,55 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,7 +4699,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W7" t="n">
-        <v>671.6612947898188</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
-        <v>443.6717438918015</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4778,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2079.343073798764</v>
+        <v>983.0286321745434</v>
       </c>
       <c r="C8" t="n">
-        <v>1710.380556858352</v>
+        <v>614.0661152341316</v>
       </c>
       <c r="D8" t="n">
-        <v>1352.114858251602</v>
+        <v>614.0661152341316</v>
       </c>
       <c r="E8" t="n">
-        <v>966.3266056533573</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F8" t="n">
-        <v>555.3407008637498</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G8" t="n">
-        <v>137.3768927619367</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>137.3768927619367</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
@@ -4832,22 +4832,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2430.46526502512</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2430.46526502512</v>
       </c>
       <c r="V8" t="n">
-        <v>2465.942913862886</v>
+        <v>2099.402377681549</v>
       </c>
       <c r="W8" t="n">
-        <v>2465.942913862886</v>
+        <v>1746.633722411435</v>
       </c>
       <c r="X8" t="n">
-        <v>2465.942913862886</v>
+        <v>1373.167964150355</v>
       </c>
       <c r="Y8" t="n">
-        <v>2465.942913862886</v>
+        <v>983.0286321745434</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4878,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C10" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="11">
@@ -5015,52 +5015,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D11" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805474</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
         <v>4860.854573014293</v>
@@ -5127,19 +5127,19 @@
         <v>534.5429807341674</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1336.046207783208</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,13 +5173,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>263.2449295548431</v>
+        <v>192.3330639344397</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028587</v>
+        <v>192.3330639344397</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028587</v>
+        <v>192.3330639344397</v>
       </c>
       <c r="E13" t="n">
         <v>97.21709146028587</v>
@@ -5203,7 +5203,7 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
         <v>779.0639759471192</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.78763177146</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V13" t="n">
-        <v>955.1031435655735</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W13" t="n">
-        <v>665.685973528613</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="X13" t="n">
-        <v>665.685973528613</v>
+        <v>192.3330639344398</v>
       </c>
       <c r="Y13" t="n">
-        <v>444.8933943850827</v>
+        <v>192.3330639344397</v>
       </c>
     </row>
     <row r="14">
@@ -5258,52 +5258,52 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
@@ -5352,7 +5352,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
         <v>138.7081686256435</v>
@@ -5364,19 +5364,19 @@
         <v>534.5429807341674</v>
       </c>
       <c r="M15" t="n">
-        <v>857.5427825698952</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N15" t="n">
-        <v>1661.954360834046</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>599.9410747082371</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="C16" t="n">
-        <v>431.0048917803302</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="D16" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="E16" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="F16" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5443,7 +5443,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5452,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1348.33044553573</v>
       </c>
       <c r="T16" t="n">
-        <v>1298.996260473455</v>
+        <v>1124.545030325236</v>
       </c>
       <c r="U16" t="n">
-        <v>1298.996260473455</v>
+        <v>835.416391538794</v>
       </c>
       <c r="V16" t="n">
-        <v>1298.996260473455</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W16" t="n">
-        <v>1009.579090436494</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X16" t="n">
-        <v>781.5895395384769</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y16" t="n">
-        <v>781.5895395384769</v>
+        <v>97.21709146028586</v>
       </c>
     </row>
     <row r="17">
@@ -5492,16 +5492,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G17" t="n">
         <v>488.193237080547</v>
@@ -5510,49 +5510,49 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514091</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
         <v>3205.060556590537</v>
@@ -5589,25 +5589,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>549.5984374701561</v>
+        <v>378.1030765138943</v>
       </c>
       <c r="L18" t="n">
-        <v>1163.495507227045</v>
+        <v>624.8682044203583</v>
       </c>
       <c r="M18" t="n">
-        <v>1470.815640507006</v>
+        <v>932.1883377003199</v>
       </c>
       <c r="N18" t="n">
-        <v>1800.678268171039</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O18" t="n">
-        <v>2080.218333389736</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P18" t="n">
         <v>2536.440602918915</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5701,22 +5701,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1090.100879744681</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U19" t="n">
-        <v>1090.100879744681</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V19" t="n">
-        <v>835.4163915387938</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W19" t="n">
-        <v>545.9992215018333</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X19" t="n">
-        <v>318.0096706038159</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5726,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
@@ -5738,22 +5738,22 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5768,34 +5768,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5826,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>303.4575213834695</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>550.2226492899335</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>857.5427825698952</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,46 +5884,46 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>266.1532743881929</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
         <v>1460.082827585746</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1313.886294955175</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1090.100879744681</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U22" t="n">
-        <v>1090.100879744681</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V22" t="n">
-        <v>835.416391538794</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W22" t="n">
-        <v>545.9992215018333</v>
+        <v>385.5899330013834</v>
       </c>
       <c r="X22" t="n">
-        <v>318.0096706038159</v>
+        <v>385.5899330013834</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>266.1532743881929</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5963,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6005,34 +6005,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6063,31 +6063,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>1024.771599890051</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028586</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028586</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028586</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028586</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028586</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6154,13 +6154,13 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
         <v>1460.082827585746</v>
@@ -6172,25 +6172,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473454</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>1133.38378183359</v>
       </c>
       <c r="U25" t="n">
-        <v>1075.21084526296</v>
+        <v>1133.38378183359</v>
       </c>
       <c r="V25" t="n">
-        <v>835.416391538794</v>
+        <v>1133.38378183359</v>
       </c>
       <c r="W25" t="n">
-        <v>545.9992215018333</v>
+        <v>843.9666117966292</v>
       </c>
       <c r="X25" t="n">
-        <v>318.0096706038159</v>
+        <v>615.9770608986119</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028586</v>
+        <v>615.9770608986119</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
         <v>1701.09316900344</v>
@@ -6212,10 +6212,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
@@ -6224,10 +6224,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6236,7 +6236,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6257,16 +6257,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6306,22 +6306,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,7 +6358,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028586</v>
+        <v>195.0373687508848</v>
       </c>
       <c r="C28" t="n">
         <v>97.21709146028586</v>
@@ -6385,13 +6385,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688074</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6406,28 +6406,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U28" t="n">
-        <v>786.0822064765186</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V28" t="n">
-        <v>531.3977182706318</v>
+        <v>933.236668829393</v>
       </c>
       <c r="W28" t="n">
-        <v>241.9805482336712</v>
+        <v>643.8194987924323</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028586</v>
+        <v>415.829947894415</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028586</v>
+        <v>195.0373687508848</v>
       </c>
     </row>
     <row r="29">
@@ -6443,25 +6443,25 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K29" t="n">
         <v>889.2841917514083</v>
@@ -6485,13 +6485,13 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
         <v>4262.3578574653</v>
@@ -6537,25 +6537,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147079</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211718</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1427.741252113633</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1757.603879777665</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P30" t="n">
         <v>2317.834075963124</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>656.5190452905604</v>
+        <v>491.5575547094953</v>
       </c>
       <c r="C31" t="n">
-        <v>543.3437276440243</v>
+        <v>378.3822370629591</v>
       </c>
       <c r="D31" t="n">
-        <v>543.3437276440243</v>
+        <v>284.0264629319942</v>
       </c>
       <c r="E31" t="n">
-        <v>451.1914993430019</v>
+        <v>191.8742346309718</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264623</v>
+        <v>191.8742346309718</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276536</v>
+        <v>191.8742346309718</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864672</v>
+        <v>164.2510079864671</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933501</v>
+        <v>369.08763629335</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667507</v>
+        <v>671.4509053667506</v>
       </c>
       <c r="M31" t="n">
-        <v>997.668872196205</v>
+        <v>997.6688721962047</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286024</v>
@@ -6637,10 +6637,10 @@
         <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021647</v>
+        <v>1842.641396021646</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056074</v>
+        <v>1936.126063056073</v>
       </c>
       <c r="R31" t="n">
         <v>1880.81182489927</v>
@@ -6649,22 +6649,22 @@
         <v>1736.652680096193</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.62813016707</v>
+        <v>1568.628130167069</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356661999</v>
+        <v>1335.260356661998</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737483</v>
+        <v>1136.336733737482</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818926</v>
+        <v>902.680428981892</v>
       </c>
       <c r="X31" t="n">
-        <v>730.451743365246</v>
+        <v>730.4517433652454</v>
       </c>
       <c r="Y31" t="n">
-        <v>656.5190452905604</v>
+        <v>617.4451542583643</v>
       </c>
     </row>
     <row r="32">
@@ -6680,31 +6680,31 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6722,13 +6722,13 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6774,28 +6774,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701559</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766198</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1564.731711769081</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1894.594339433114</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2174.134404651811</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2379.15688543402</v>
       </c>
       <c r="Q33" t="n">
         <v>2612.943493278838</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108338</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C34" t="n">
-        <v>559.344147222968</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506734</v>
+        <v>478.0475988506729</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083214</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504521</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G34" t="n">
         <v>221.5295092103129</v>
@@ -6853,25 +6853,25 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254954</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N34" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.186490350128</v>
       </c>
       <c r="P34" t="n">
         <v>1932.236826184156</v>
@@ -6880,7 +6880,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S34" t="n">
         <v>1865.165908942116</v>
@@ -6895,13 +6895,13 @@
         <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862498</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045215</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010324</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6920,49 +6920,49 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G35" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
@@ -6971,16 +6971,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -6990,16 +6990,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C36" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D36" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E36" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047446</v>
       </c>
       <c r="F36" t="n">
         <v>358.2718071316295</v>
@@ -7011,31 +7011,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>412.607977814708</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1333.825180851558</v>
       </c>
       <c r="N36" t="n">
-        <v>1833.271529962218</v>
+        <v>1663.687808515591</v>
       </c>
       <c r="O36" t="n">
-        <v>2112.811595180915</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7050,7 +7050,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W36" t="n">
         <v>1571.258395043133</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504515</v>
+        <v>320.8847398504509</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103126</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982969</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649693</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7117,13 +7117,13 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942115</v>
       </c>
       <c r="T37" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771662</v>
       </c>
       <c r="U37" t="n">
         <v>1489.892037025262</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045204</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7163,40 +7163,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7205,19 +7205,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7227,16 +7227,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C39" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D39" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E39" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047446</v>
       </c>
       <c r="F39" t="n">
         <v>358.2718071316295</v>
@@ -7248,31 +7248,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277032</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>901.6749225845917</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>2013.406634128704</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2292.946699347401</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2497.96918012961</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7287,7 +7287,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V39" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W39" t="n">
         <v>1571.258395043133</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G40" t="n">
         <v>221.5295092103129</v>
@@ -7327,13 +7327,13 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L40" t="n">
         <v>709.8489468649691</v>
@@ -7366,16 +7366,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="41">
@@ -7391,28 +7391,28 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F41" t="n">
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7433,13 +7433,13 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
         <v>4262.3578574653</v>
@@ -7485,28 +7485,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277031</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341674</v>
+        <v>534.542980734167</v>
       </c>
       <c r="M42" t="n">
-        <v>1247.466478653857</v>
+        <v>841.8631140141285</v>
       </c>
       <c r="N42" t="n">
-        <v>2051.878056918008</v>
+        <v>1528.623401105981</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,40 +7543,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506721</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E43" t="n">
-        <v>398.95459630832</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504507</v>
+        <v>320.8847398504515</v>
       </c>
       <c r="G43" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J43" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L43" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N43" t="n">
         <v>1386.860941116388</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="44">
@@ -7637,7 +7637,7 @@
         <v>904.3190116155893</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
         <v>179.8222783822463</v>
@@ -7646,28 +7646,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014293</v>
@@ -7701,16 +7701,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C45" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D45" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E45" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047446</v>
       </c>
       <c r="F45" t="n">
         <v>358.2718071316295</v>
@@ -7728,22 +7728,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>412.607977814708</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211719</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>966.6932390011334</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1771.104817265284</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2320.788110039406</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q45" t="n">
         <v>2612.943493278838</v>
@@ -7761,7 +7761,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V45" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W45" t="n">
         <v>1571.258395043133</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D46" t="n">
-        <v>478.047598850672</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E46" t="n">
-        <v>398.95459630832</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504507</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7804,10 +7804,10 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L46" t="n">
         <v>709.8489468649691</v>
@@ -7846,10 +7846,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
   </sheetData>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8544,13 +8544,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783519</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8775,22 +8775,22 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>165.9802687929762</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9012,22 +9012,22 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>15.83804904622843</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>94.13752431970607</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720745</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9243,22 +9243,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>91.23759968302119</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>253.7371603504737</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -9477,10 +9477,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>15.83804904622846</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9489,19 +9489,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9717,10 +9717,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>369.089388049373</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9729,16 +9729,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9878,7 +9878,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504502</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
@@ -9954,28 +9954,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>50.62661940943622</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10191,22 +10191,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>76.43196988338644</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,7 +10425,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10434,7 +10434,7 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10443,10 +10443,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>148.1350559470656</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10589,7 +10589,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504526</v>
       </c>
       <c r="M35" t="n">
         <v>449.5135334928325</v>
@@ -10665,28 +10665,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>277.671796620807</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>392.1113620226446</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10826,7 +10826,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504526</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,31 +10899,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>38.86002301950003</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11145,22 +11145,22 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>409.7003683229581</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>360.5026862907266</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11300,7 +11300,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504526</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11376,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11385,16 +11385,16 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>272.8719470256814</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23413,16 +23413,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>2.879261385016235</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>52.26914989715686</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,13 +23476,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>133.5729475322821</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23665,10 +23665,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>158.8051956154454</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23941,10 +23941,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>14.74113413690318</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>259.2629056590286</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24127,7 +24127,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24172,28 +24172,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>14.74113413690324</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>100.3423613250362</v>
       </c>
     </row>
     <row r="23">
@@ -24361,10 +24361,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24376,7 +24376,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24415,13 +24415,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>57.59120720492312</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>14.74113413690364</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24601,7 +24601,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>70.40474658093481</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24616,7 +24616,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583893</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,10 +24664,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>82.39383318338571</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533803</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965533</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.21779139437422</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348206</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571497</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>90.18802562959907</v>
+        <v>51.50487350772494</v>
       </c>
     </row>
     <row r="32">
@@ -25087,7 +25087,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>808738.5104277349</v>
+        <v>808738.510427735</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>808738.5104277349</v>
+        <v>808738.5104277352</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>808738.510427735</v>
+        <v>808738.5104277349</v>
       </c>
     </row>
     <row r="8">
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516048</v>
+        <v>595255.2831516046</v>
       </c>
       <c r="C2" t="n">
         <v>595255.2831516048</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516049</v>
+        <v>595255.2831516048</v>
       </c>
       <c r="E2" t="n">
+        <v>566992.1366196778</v>
+      </c>
+      <c r="F2" t="n">
         <v>566992.1366196779</v>
       </c>
-      <c r="F2" t="n">
-        <v>566992.1366196777</v>
-      </c>
       <c r="G2" t="n">
-        <v>566992.1366196777</v>
+        <v>566992.1366196774</v>
       </c>
       <c r="H2" t="n">
         <v>566992.1366196778</v>
@@ -26338,22 +26338,22 @@
         <v>566992.1366196778</v>
       </c>
       <c r="K2" t="n">
-        <v>589892.0991506417</v>
+        <v>589892.0991506412</v>
       </c>
       <c r="L2" t="n">
-        <v>595255.2831516046</v>
+        <v>595255.2831516051</v>
       </c>
       <c r="M2" t="n">
+        <v>595255.2831516048</v>
+      </c>
+      <c r="N2" t="n">
+        <v>595255.2831516047</v>
+      </c>
+      <c r="O2" t="n">
+        <v>595255.2831516051</v>
+      </c>
+      <c r="P2" t="n">
         <v>595255.2831516049</v>
-      </c>
-      <c r="N2" t="n">
-        <v>595255.2831516048</v>
-      </c>
-      <c r="O2" t="n">
-        <v>595255.2831516049</v>
-      </c>
-      <c r="P2" t="n">
-        <v>595255.2831516046</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284563</v>
+        <v>44162.6053028454</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086692</v>
+        <v>10342.90680086691</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284565</v>
+        <v>44162.60530284564</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>147917.0487159209</v>
+      </c>
+      <c r="C4" t="n">
         <v>147917.0487159208</v>
-      </c>
-      <c r="C4" t="n">
-        <v>147917.0487159209</v>
       </c>
       <c r="D4" t="n">
         <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
+        <v>7916.731656007456</v>
+      </c>
+      <c r="F4" t="n">
+        <v>7916.731656007497</v>
+      </c>
+      <c r="G4" t="n">
+        <v>7916.731656007457</v>
+      </c>
+      <c r="H4" t="n">
+        <v>7916.731656007455</v>
+      </c>
+      <c r="I4" t="n">
         <v>7916.731656007483</v>
       </c>
-      <c r="F4" t="n">
+      <c r="J4" t="n">
         <v>7916.731656007483</v>
       </c>
-      <c r="G4" t="n">
-        <v>7916.731656007501</v>
-      </c>
-      <c r="H4" t="n">
-        <v>7916.731656007484</v>
-      </c>
-      <c r="I4" t="n">
-        <v>7916.731656007498</v>
-      </c>
-      <c r="J4" t="n">
-        <v>7916.731656007497</v>
-      </c>
       <c r="K4" t="n">
-        <v>26081.35417020401</v>
+        <v>26081.35417020406</v>
       </c>
       <c r="L4" t="n">
+        <v>30335.51889732802</v>
+      </c>
+      <c r="M4" t="n">
         <v>30335.51889732797</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
+        <v>30335.51889732797</v>
+      </c>
+      <c r="O4" t="n">
+        <v>30335.51889732803</v>
+      </c>
+      <c r="P4" t="n">
         <v>30335.51889732798</v>
-      </c>
-      <c r="N4" t="n">
-        <v>30335.51889732798</v>
-      </c>
-      <c r="O4" t="n">
-        <v>30335.51889732795</v>
-      </c>
-      <c r="P4" t="n">
-        <v>30335.51889732797</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871664</v>
@@ -26485,28 +26485,28 @@
         <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022279</v>
+        <v>96628.20853022276</v>
       </c>
       <c r="L5" t="n">
+        <v>97715.10582002538</v>
+      </c>
+      <c r="M5" t="n">
         <v>97715.1058200254</v>
       </c>
-      <c r="M5" t="n">
-        <v>97715.10582002539</v>
-      </c>
       <c r="N5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="P5" t="n">
         <v>97715.1058200254</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-225488.7228422699</v>
+        <v>-225488.7228422703</v>
       </c>
       <c r="C6" t="n">
         <v>364479.1563722745</v>
       </c>
       <c r="D6" t="n">
-        <v>364479.1563722746</v>
+        <v>364479.1563722745</v>
       </c>
       <c r="E6" t="n">
-        <v>-58071.9574619425</v>
+        <v>-58169.41658791463</v>
       </c>
       <c r="F6" t="n">
-        <v>467088.0790149536</v>
+        <v>466990.6198889816</v>
       </c>
       <c r="G6" t="n">
-        <v>467088.0790149536</v>
+        <v>466990.6198889812</v>
       </c>
       <c r="H6" t="n">
-        <v>467088.0790149537</v>
+        <v>466990.6198889815</v>
       </c>
       <c r="I6" t="n">
-        <v>467088.0790149536</v>
+        <v>466990.6198889814</v>
       </c>
       <c r="J6" t="n">
-        <v>290664.8598223607</v>
+        <v>290567.4006963886</v>
       </c>
       <c r="K6" t="n">
-        <v>423019.9311473693</v>
+        <v>423001.4374094347</v>
       </c>
       <c r="L6" t="n">
-        <v>456861.7516333843</v>
+        <v>456861.7516333847</v>
       </c>
       <c r="M6" t="n">
-        <v>332403.6432004144</v>
+        <v>332403.6432004141</v>
       </c>
       <c r="N6" t="n">
-        <v>467204.6584342515</v>
+        <v>467204.6584342513</v>
       </c>
       <c r="O6" t="n">
         <v>467204.6584342516</v>
       </c>
       <c r="P6" t="n">
-        <v>423042.0531314055</v>
+        <v>423042.053131406</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N2" t="n">
         <v>68.13189012964067</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541003</v>
@@ -26753,31 +26753,31 @@
         <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26932,22 +26932,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>55.20325662855706</v>
+      </c>
+      <c r="L2" t="n">
+        <v>12.92863350108364</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>55.20325662855704</v>
-      </c>
-      <c r="L2" t="n">
-        <v>12.92863350108365</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>55.20325662855706</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.926370499018</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855706</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27388,16 +27388,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>287.6067095143162</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>23.03118778159273</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27464,7 +27464,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27543,13 +27543,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,19 +27579,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>12.7085716899514</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>235.8503564698089</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>101.3131459317434</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>53.8392807761071</v>
       </c>
     </row>
     <row r="6">
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,10 +27819,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>22.54869530067481</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27831,16 +27831,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>230.6199858141418</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>69.33174441270474</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>181.3254480082694</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,19 +28011,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>107.5829646831825</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28065,16 +28065,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>96.68503059263361</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -29056,7 +29056,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855703</v>
       </c>
     </row>
     <row r="32">
@@ -29764,7 +29764,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30283,7 +30283,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -30469,7 +30469,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33175,46 +33175,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T29" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33254,43 +33254,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q30" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33336,43 +33336,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N31" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P31" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q31" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33412,46 +33412,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T32" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33491,43 +33491,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q33" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33573,43 +33573,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N34" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P34" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q34" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33649,46 +33649,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T35" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33728,43 +33728,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q36" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33810,43 +33810,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N37" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P37" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q37" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33886,46 +33886,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T38" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33965,43 +33965,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q39" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34047,43 +34047,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N40" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P40" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q40" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34123,46 +34123,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T41" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34202,43 +34202,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q42" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34284,43 +34284,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N43" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P43" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q43" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34360,46 +34360,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T44" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34439,43 +34439,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J45" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q45" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34521,43 +34521,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K46" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L46" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N46" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P46" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q46" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S46" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262123</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35495,22 +35495,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415665</v>
+        <v>499.1748421909892</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
         <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35732,22 +35732,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>326.2624260966948</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415665</v>
+        <v>427.332097717719</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
         <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415086</v>
       </c>
       <c r="K17" t="n">
         <v>528.6897561303331</v>
@@ -35963,22 +35963,22 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>241.8130382709604</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>460.8305752819984</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
         <v>88.01303278507413</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>166.4134876341677</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,28 +36437,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>618.3470930053974</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,25 +36674,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>361.0509964599025</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299105</v>
@@ -36765,13 +36765,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
         <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36911,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879391</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>358.7956721244944</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315245</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209231</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686861</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412255</v>
+        <v>67.71102679412252</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584676</v>
+        <v>206.9056851584675</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084856</v>
+        <v>305.4174435084855</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075296</v>
+        <v>329.5130978075294</v>
       </c>
       <c r="N31" t="n">
         <v>328.4801344341606</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491599</v>
+        <v>291.4406081491598</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403578</v>
+        <v>233.5868572403577</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043177</v>
+        <v>94.42895660043173</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005177</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.363702241108</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315245</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>236.1480887321397</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686861</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,16 +37224,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
       </c>
       <c r="L34" t="n">
-        <v>318.3460770095692</v>
+        <v>318.3460770095691</v>
       </c>
       <c r="M34" t="n">
-        <v>342.4417313086132</v>
+        <v>342.4417313086131</v>
       </c>
       <c r="N34" t="n">
         <v>341.4087679352443</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109091</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37385,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879391</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594833</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N36" t="n">
-        <v>610.8663700188198</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>674.4750642637526</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315245</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507405</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,19 +37461,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
       </c>
       <c r="L37" t="n">
-        <v>318.3460770095692</v>
+        <v>318.3460770095691</v>
       </c>
       <c r="M37" t="n">
-        <v>342.4417313086132</v>
+        <v>342.4417313086131</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O37" t="n">
         <v>304.3692416502435</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109091</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879391</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594833</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415662</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.363702241108</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315245</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>126.8730558045741</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,16 +37698,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
       </c>
       <c r="L40" t="n">
-        <v>318.3460770095692</v>
+        <v>318.3460770095691</v>
       </c>
       <c r="M40" t="n">
-        <v>342.4417313086132</v>
+        <v>342.4417313086131</v>
       </c>
       <c r="N40" t="n">
         <v>341.4087679352443</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879391</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M42" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415663</v>
+        <v>693.6972596887393</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.363702241108</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714617</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209231</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520614</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37944,10 +37944,10 @@
         <v>318.3460770095692</v>
       </c>
       <c r="M43" t="n">
-        <v>342.4417313086132</v>
+        <v>342.4417313086131</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
         <v>304.3692416502435</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109091</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38096,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879391</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415662</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>555.2356492667894</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315245</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507405</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686861</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38181,10 +38181,10 @@
         <v>318.3460770095692</v>
       </c>
       <c r="M46" t="n">
-        <v>342.4417313086132</v>
+        <v>342.4417313086131</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
         <v>304.3692416502435</v>
